--- a/data/trans_dic/P35A_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P35A_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces</t>
+          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces (tasa de respuesta: 99,62%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>13,78%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,04%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>25,44%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,37%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>11,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,4%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>17,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10,93%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18,02%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,19; 49,96</t>
+          <t>3,32; 30,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,3; 49,5</t>
+          <t>3,68; 31,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,25; 48,84</t>
+          <t>12,44; 45,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 28,4</t>
+          <t>12,5; 46,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,44; 56,05</t>
+          <t>4,46; 23,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,46; 22,17</t>
+          <t>2,23; 18,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,96; 34,6</t>
+          <t>3,86; 21,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,43; 46,01</t>
+          <t>7,98; 29,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,04; 33,45</t>
+          <t>6,24; 21,79</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,66; 20,98</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10,07; 28,61</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12,72; 33,42</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>44,89%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>10,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,55%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>10,2%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>15,86%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>11,86%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,15; 33,92</t>
+          <t>3,76; 23,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>27,8; 61,74</t>
+          <t>8,41; 36,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,73; 44,55</t>
+          <t>2,69; 20,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,94; 23,41</t>
+          <t>2,27; 21,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 30,62</t>
+          <t>3,63; 20,18</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,64; 33,3</t>
+          <t>3,73; 24,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,1; 25,14</t>
+          <t>3,06; 17,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,96; 42,13</t>
+          <t>6,91; 33,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,04; 36,06</t>
+          <t>5,33; 17,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>9,07; 25,01</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 15,89</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,74; 20,84</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,83%</t>
+          <t>15,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>7,33%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,38%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>7,91%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 19,26</t>
+          <t>5,3; 23,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 23,43</t>
+          <t>3,28; 18,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 25,1</t>
+          <t>3,44; 19,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 18,49</t>
+          <t>7,88; 26,34</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 19,61</t>
+          <t>1,71; 9,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 24,42</t>
+          <t>1,92; 11,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 15,56</t>
+          <t>2,96; 13,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 18,34</t>
+          <t>2,59; 12,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 21,77</t>
+          <t>3,92; 12,0</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 11,6</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,33; 12,88</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 16,11</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>3,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,67%</t>
+          <t>4,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,51%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,93; 20,13</t>
+          <t>3,59; 15,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 17,53</t>
+          <t>2,93; 15,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 21,66</t>
+          <t>6,31; 21,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,09</t>
+          <t>6,78; 22,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 18,53</t>
+          <t>0,0; 7,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 11,23</t>
+          <t>1,85; 11,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 14,34</t>
+          <t>0,81; 7,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 15,02</t>
+          <t>0,92; 8,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 15,28</t>
+          <t>2,27; 8,84</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>3,29; 10,55</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>3,85; 11,7</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>4,77; 13,01</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>12,71%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 10,36</t>
+          <t>1,15; 9,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 19,01</t>
+          <t>2,32; 14,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 16,42</t>
+          <t>1,42; 13,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>4,76; 30,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,74; 6,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,86; 13,15</t>
+          <t>0,0; 11,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 11,63</t>
+          <t>0,0; 5,91</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,44; 8,33</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 7,39</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3,5; 19,19</t>
         </is>
       </c>
     </row>
@@ -1187,42 +1362,57 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>7,94%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>3,4%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,05%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>4,82%</t>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1,22%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4,86%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,05</t>
+          <t>0,0; 15,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,46; 19,28</t>
+          <t>0,0; 14,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>1,88; 22,38</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0,0; 10,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 11,06</t>
+          <t>0,0; 8,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,51; 12,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 8,76</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,03</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1,83; 11,89</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,28%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>7,72%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7,88%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10,6%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,52; 17,12</t>
+          <t>5,66; 11,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,44; 22,01</t>
+          <t>7,5; 14,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,16; 22,18</t>
+          <t>7,61; 16,03</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,35; 11,07</t>
+          <t>9,51; 18,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 18,79</t>
+          <t>2,98; 7,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,95; 13,07</t>
+          <t>3,32; 8,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,8; 13,18</t>
+          <t>3,33; 8,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,21; 18,81</t>
+          <t>5,31; 10,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>11,25; 17,48</t>
+          <t>4,64; 8,39</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 10,15</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 10,61</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8,14; 13,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha dado un atracón de alcohol en las últimas 2 semanas alguna o varias veces (tasa de respuesta: 99,62%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14746</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15450</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>31759</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>36676</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15461</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11694</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>25949</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>30207</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>24687</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>43453</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>62624</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3549; 32603</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3890; 33545</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>15532; 56230</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17391; 65206</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5975; 31931</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2677; 22351</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>4496; 24902</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>11605; 42659</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>15031; 52513</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10531; 47378</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>24288; 69004</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>36219; 95127</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18826</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>29192</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14389</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>19466</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>15229</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13635</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11281</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26420</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34054</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>42827</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>25671</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>45887</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6351; 40026</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12064; 52350</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4145; 32353</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>5171; 48247</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5994; 33319</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4730; 31208</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>3862; 22130</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11011; 52832</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17781; 58760</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>24504; 67549</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12238; 44588</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22235; 80675</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>19276</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11463</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12397</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>27697</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>11717</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10272</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13836</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14627</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>30993</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>21735</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>26233</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>42324</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8416; 37420</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4409; 24599</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4507; 24905</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14197; 47475</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4508; 24974</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>3960; 24064</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5926; 26654</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6200; 28943</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>16568; 50741</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11431; 39484</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14367; 42712</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>26309; 67676</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14312</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12715</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18875</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>27454</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4579</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>9308</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4753</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7438</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>18891</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>22023</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>23629</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>34892</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6698; 28635</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4730; 25057</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9621; 33022</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13666; 44763</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 15775</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3442; 20759</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1386; 12464</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1916; 18395</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>9192; 35820</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>11417; 36614</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>12428; 37794</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>19559; 53342</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6080</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>8574</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6781</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19650</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4529</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6080</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>8574</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6781</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>24179</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1814; 15526</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3067; 18678</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1723; 16232</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7358; 46534</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 15352</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 16161</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3247; 18825</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1715; 15801</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10207; 55982</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2429</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>10940</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2096</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5835</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6366</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2429</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>16775</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 13605</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12616</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2591; 30840</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10737</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 18266</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>2022; 16867</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11951</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>6312; 41058</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>73240</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>81665</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>86632</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>141882</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>46986</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>44547</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>41564</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>84798</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>120225</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>126212</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>128196</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>226680</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>50225; 103994</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>57298; 110306</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>58851; 124027</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>98975; 194189</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>30808; 73383</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>27785; 67717</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>27123; 66169</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>58289; 119739</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>89264; 161367</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>95720; 162526</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>97754; 168560</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>174194; 289817</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>